--- a/data/pca/factorExposure/factorExposure_2018-03-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-03-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.006949046297366927</v>
+        <v>0.01246320358339539</v>
       </c>
       <c r="C2">
-        <v>-0.02593007405286629</v>
+        <v>-0.02492636101689237</v>
       </c>
       <c r="D2">
-        <v>-0.01984972253533231</v>
+        <v>0.02374882565664111</v>
       </c>
       <c r="E2">
-        <v>-0.008896020599655788</v>
+        <v>-0.02231649093431661</v>
       </c>
       <c r="F2">
-        <v>0.08060178716762406</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.001469871640573726</v>
+      </c>
+      <c r="G2">
+        <v>-0.01288742048899516</v>
+      </c>
+      <c r="H2">
+        <v>-0.04568907685708376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.08875794872986337</v>
+        <v>0.05442709542276621</v>
       </c>
       <c r="C3">
-        <v>-0.05226331517882354</v>
+        <v>-0.07791453925845318</v>
       </c>
       <c r="D3">
-        <v>0.008310300444558433</v>
+        <v>0.004445145787159028</v>
       </c>
       <c r="E3">
-        <v>-0.03439844422586567</v>
+        <v>-0.03449397052547601</v>
       </c>
       <c r="F3">
-        <v>0.309818978720224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.0845633070189927</v>
+      </c>
+      <c r="G3">
+        <v>-0.07864526077663776</v>
+      </c>
+      <c r="H3">
+        <v>-0.1105938942040628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04532664036889787</v>
+        <v>0.03515273999450149</v>
       </c>
       <c r="C4">
-        <v>-0.01401462622405315</v>
+        <v>-0.06308221769348531</v>
       </c>
       <c r="D4">
-        <v>-0.03013391076933196</v>
+        <v>0.01625356848597669</v>
       </c>
       <c r="E4">
-        <v>0.0380989954904849</v>
+        <v>0.0232026228224231</v>
       </c>
       <c r="F4">
-        <v>0.06066805642074874</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.00524317729634192</v>
+      </c>
+      <c r="G4">
+        <v>-0.04732201078214879</v>
+      </c>
+      <c r="H4">
+        <v>-0.05412741693608743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03457859492063502</v>
+        <v>0.01966115089602748</v>
       </c>
       <c r="C6">
-        <v>-0.01795387050658746</v>
+        <v>-0.06494623820934259</v>
       </c>
       <c r="D6">
-        <v>-0.0400231747110824</v>
+        <v>0.01143501267675658</v>
       </c>
       <c r="E6">
-        <v>0.02755030454265263</v>
+        <v>0.009701043524204797</v>
       </c>
       <c r="F6">
-        <v>0.02052717152818215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01691149120136539</v>
+      </c>
+      <c r="G6">
+        <v>-0.02700982568079043</v>
+      </c>
+      <c r="H6">
+        <v>-0.05412309770039473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04133120757129193</v>
+        <v>0.008157666477071867</v>
       </c>
       <c r="C7">
-        <v>0.03104543837806241</v>
+        <v>-0.0340991258050159</v>
       </c>
       <c r="D7">
-        <v>-0.02280428833250894</v>
+        <v>0.009880835160180207</v>
       </c>
       <c r="E7">
-        <v>0.008306538116310111</v>
+        <v>0.0405310421157435</v>
       </c>
       <c r="F7">
-        <v>0.02699550224710148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02518566077214368</v>
+      </c>
+      <c r="G7">
+        <v>-0.00683755496158423</v>
+      </c>
+      <c r="H7">
+        <v>-0.03583081153155693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0149490000715509</v>
+        <v>-0.003126982704813827</v>
       </c>
       <c r="C8">
-        <v>0.001319372706255049</v>
+        <v>-0.00926291551819043</v>
       </c>
       <c r="D8">
-        <v>-0.03653386452700628</v>
+        <v>0.001530071396795891</v>
       </c>
       <c r="E8">
-        <v>0.02726033225167086</v>
+        <v>0.007120013977113575</v>
       </c>
       <c r="F8">
-        <v>0.05316531231745993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.01768685897013176</v>
+      </c>
+      <c r="G8">
+        <v>-0.02993880704480824</v>
+      </c>
+      <c r="H8">
+        <v>-0.02530963560858352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03209864558590466</v>
+        <v>0.01991721018445682</v>
       </c>
       <c r="C9">
-        <v>-0.006735517417420953</v>
+        <v>-0.0481247872502467</v>
       </c>
       <c r="D9">
-        <v>-0.03065146843162774</v>
+        <v>0.0111869245161255</v>
       </c>
       <c r="E9">
-        <v>0.01149259532986448</v>
+        <v>0.00535990558096575</v>
       </c>
       <c r="F9">
-        <v>0.07366498665031547</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.0139241256322104</v>
+      </c>
+      <c r="G9">
+        <v>-0.03155734085633576</v>
+      </c>
+      <c r="H9">
+        <v>-0.05264821417065164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03620310735624983</v>
+        <v>0.1393067134543471</v>
       </c>
       <c r="C10">
-        <v>-0.002923812063838332</v>
+        <v>0.1382934673196927</v>
       </c>
       <c r="D10">
-        <v>0.1442463330039732</v>
+        <v>-0.02464072921330529</v>
       </c>
       <c r="E10">
-        <v>-0.05492847121563038</v>
+        <v>-0.01829663852743526</v>
       </c>
       <c r="F10">
-        <v>0.05331641210175881</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.04968519410802037</v>
+      </c>
+      <c r="G10">
+        <v>-0.002632502204754527</v>
+      </c>
+      <c r="H10">
+        <v>0.008279707474539445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02830829536095811</v>
+        <v>0.01335837660923295</v>
       </c>
       <c r="C11">
-        <v>-0.02429167014110606</v>
+        <v>-0.05023431479294353</v>
       </c>
       <c r="D11">
-        <v>-0.03382619064517787</v>
+        <v>-0.00161023636136782</v>
       </c>
       <c r="E11">
-        <v>0.02432550723741622</v>
+        <v>0.000553992361701203</v>
       </c>
       <c r="F11">
-        <v>0.02240789932100858</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.005585241445335412</v>
+      </c>
+      <c r="G11">
+        <v>-0.01494281914436815</v>
+      </c>
+      <c r="H11">
+        <v>-0.04870290671198455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04123681719253696</v>
+        <v>0.01731249930949689</v>
       </c>
       <c r="C12">
-        <v>-0.02545671708880639</v>
+        <v>-0.04809676082925537</v>
       </c>
       <c r="D12">
-        <v>-0.02719523534819097</v>
+        <v>0.002168214153453332</v>
       </c>
       <c r="E12">
-        <v>0.0328384257537859</v>
+        <v>0.01430068053631387</v>
       </c>
       <c r="F12">
-        <v>-0.003740068732573779</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.005870666229553684</v>
+      </c>
+      <c r="G12">
+        <v>-0.007950674319325762</v>
+      </c>
+      <c r="H12">
+        <v>-0.01836941515548813</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.005594986986435826</v>
+        <v>0.01515557416360459</v>
       </c>
       <c r="C13">
-        <v>-0.01873398559305278</v>
+        <v>-0.02491186352815767</v>
       </c>
       <c r="D13">
-        <v>-0.008435893944308064</v>
+        <v>0.01968473489958757</v>
       </c>
       <c r="E13">
-        <v>0.009980172563661188</v>
+        <v>-0.01616837267887936</v>
       </c>
       <c r="F13">
-        <v>0.06840848829049052</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.004593909351931174</v>
+      </c>
+      <c r="G13">
+        <v>-0.04130803886374982</v>
+      </c>
+      <c r="H13">
+        <v>-0.06837606861526044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02507306269637983</v>
+        <v>0.007362835966584488</v>
       </c>
       <c r="C14">
-        <v>0.00299643118554493</v>
+        <v>-0.02133037702195504</v>
       </c>
       <c r="D14">
-        <v>-0.01441824419788203</v>
+        <v>0.005674187429715477</v>
       </c>
       <c r="E14">
-        <v>0.01564600761208037</v>
+        <v>0.0140021360343983</v>
       </c>
       <c r="F14">
-        <v>0.04117595178257858</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.01579817176184328</v>
+      </c>
+      <c r="G14">
+        <v>-0.02283586998251175</v>
+      </c>
+      <c r="H14">
+        <v>-0.01733586345733693</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02982059995821573</v>
+        <v>0.01538985444015663</v>
       </c>
       <c r="C16">
-        <v>-0.0237495959948636</v>
+        <v>-0.04393970239341546</v>
       </c>
       <c r="D16">
-        <v>-0.0376637606835076</v>
+        <v>-0.002110866201015562</v>
       </c>
       <c r="E16">
-        <v>0.02487355552570498</v>
+        <v>0.004889615768918208</v>
       </c>
       <c r="F16">
-        <v>0.02737091394660066</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.00350128518044601</v>
+      </c>
+      <c r="G16">
+        <v>-0.01634182134714694</v>
+      </c>
+      <c r="H16">
+        <v>-0.03754745544850108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03451999178771514</v>
+        <v>0.01601157358181484</v>
       </c>
       <c r="C19">
-        <v>-0.01610877272505134</v>
+        <v>-0.04345985461802906</v>
       </c>
       <c r="D19">
-        <v>-0.0347471134257477</v>
+        <v>0.009936129910656989</v>
       </c>
       <c r="E19">
-        <v>0.03858692122900819</v>
+        <v>0.008006678423915855</v>
       </c>
       <c r="F19">
-        <v>0.0689698162556393</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.01675874153922975</v>
+      </c>
+      <c r="G19">
+        <v>-0.04599914079204649</v>
+      </c>
+      <c r="H19">
+        <v>-0.05351931759207899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002944090005470695</v>
+        <v>0.003707981107663827</v>
       </c>
       <c r="C20">
-        <v>0.009941526544210396</v>
+        <v>-0.02145691266666545</v>
       </c>
       <c r="D20">
-        <v>-0.002836036328767013</v>
+        <v>0.009679266451910615</v>
       </c>
       <c r="E20">
-        <v>0.0136219001418667</v>
+        <v>-0.0008543795518579493</v>
       </c>
       <c r="F20">
-        <v>0.04504204847361858</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01915673702276301</v>
+      </c>
+      <c r="G20">
+        <v>-0.03543672375352148</v>
+      </c>
+      <c r="H20">
+        <v>-0.02946939435622242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02086280975127607</v>
+        <v>0.008854195644917552</v>
       </c>
       <c r="C21">
-        <v>0.01094633145408553</v>
+        <v>-0.02159517730059352</v>
       </c>
       <c r="D21">
-        <v>-0.03009656559307073</v>
+        <v>0.01183940779620753</v>
       </c>
       <c r="E21">
-        <v>0.01182786462693023</v>
+        <v>0.01148392901840131</v>
       </c>
       <c r="F21">
-        <v>0.01430627026283442</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.02050031769982277</v>
+      </c>
+      <c r="G21">
+        <v>-0.01949562039207284</v>
+      </c>
+      <c r="H21">
+        <v>-0.04266482131662262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02530512577380255</v>
+        <v>0.009069698014514738</v>
       </c>
       <c r="C24">
-        <v>-0.02015913931713994</v>
+        <v>-0.04203182660713359</v>
       </c>
       <c r="D24">
-        <v>-0.01789248396647978</v>
+        <v>0.00351016701560187</v>
       </c>
       <c r="E24">
-        <v>0.02127404211439674</v>
+        <v>0.005016441590912715</v>
       </c>
       <c r="F24">
-        <v>0.0257117815229968</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.008051613475900157</v>
+      </c>
+      <c r="G24">
+        <v>-0.007791288079208749</v>
+      </c>
+      <c r="H24">
+        <v>-0.04338941607099632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03041940504168025</v>
+        <v>0.02336962995389077</v>
       </c>
       <c r="C25">
-        <v>-0.02031152842085221</v>
+        <v>-0.05015097064702681</v>
       </c>
       <c r="D25">
-        <v>-0.02803405012585868</v>
+        <v>0.006216789892989821</v>
       </c>
       <c r="E25">
-        <v>0.02010305469242622</v>
+        <v>0.01141693611615776</v>
       </c>
       <c r="F25">
-        <v>0.02981489978759212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.009187393778562652</v>
+      </c>
+      <c r="G25">
+        <v>-0.01744788405199045</v>
+      </c>
+      <c r="H25">
+        <v>-0.04039193230675394</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01393796307497955</v>
+        <v>0.006829511371868902</v>
       </c>
       <c r="C26">
-        <v>-0.005093996332598475</v>
+        <v>-0.005807710452771985</v>
       </c>
       <c r="D26">
-        <v>-0.01325729040666849</v>
+        <v>0.02203383491147056</v>
       </c>
       <c r="E26">
-        <v>-0.01048031205413914</v>
+        <v>0.003302597819424855</v>
       </c>
       <c r="F26">
-        <v>0.04962844924988955</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.01208276585249143</v>
+      </c>
+      <c r="G26">
+        <v>-0.008203612223321813</v>
+      </c>
+      <c r="H26">
+        <v>-0.02045265590568606</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.02868389343921259</v>
+        <v>0.008473917746670473</v>
       </c>
       <c r="C27">
-        <v>-0.007780890902517643</v>
+        <v>-0.009280910149066032</v>
       </c>
       <c r="D27">
-        <v>0.003259228070005699</v>
+        <v>-0.001970719702772611</v>
       </c>
       <c r="E27">
-        <v>0.03155256670222184</v>
+        <v>0.009786920475340785</v>
       </c>
       <c r="F27">
-        <v>0.004560921011172648</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.006063837413987256</v>
+      </c>
+      <c r="G27">
+        <v>-0.008223282669146046</v>
+      </c>
+      <c r="H27">
+        <v>0.01010406780011625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07439568220858075</v>
+        <v>0.193091704730348</v>
       </c>
       <c r="C28">
-        <v>-0.01025998938665797</v>
+        <v>0.1775225382295905</v>
       </c>
       <c r="D28">
-        <v>0.2115574150085983</v>
+        <v>-0.01980581496069727</v>
       </c>
       <c r="E28">
-        <v>-0.09107339633359074</v>
+        <v>-0.0004584411669168098</v>
       </c>
       <c r="F28">
-        <v>0.05118932150874448</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.04937944623451953</v>
+      </c>
+      <c r="G28">
+        <v>0.008700791148624499</v>
+      </c>
+      <c r="H28">
+        <v>0.009389981952867898</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02537320648073747</v>
+        <v>0.01262495805638875</v>
       </c>
       <c r="C29">
-        <v>-0.0003526607207475354</v>
+        <v>-0.01896616764425681</v>
       </c>
       <c r="D29">
-        <v>-0.01507673039979755</v>
+        <v>0.004478408696673169</v>
       </c>
       <c r="E29">
-        <v>0.01757553469588828</v>
+        <v>0.01109910173871767</v>
       </c>
       <c r="F29">
-        <v>0.03982712359067841</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.01648913567636138</v>
+      </c>
+      <c r="G29">
+        <v>-0.02271185009231889</v>
+      </c>
+      <c r="H29">
+        <v>-0.01005501428898062</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03052280172946699</v>
+        <v>0.02228021879756137</v>
       </c>
       <c r="C30">
-        <v>-0.06896383959235372</v>
+        <v>-0.08780995791061016</v>
       </c>
       <c r="D30">
-        <v>-0.05178531829609465</v>
+        <v>0.0212616289827184</v>
       </c>
       <c r="E30">
-        <v>0.02653932003781683</v>
+        <v>-0.0289823231841674</v>
       </c>
       <c r="F30">
-        <v>0.07899417363287331</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.01540535731276235</v>
+      </c>
+      <c r="G30">
+        <v>-0.05037439201506098</v>
+      </c>
+      <c r="H30">
+        <v>-0.07469995526595918</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04701275762969138</v>
+        <v>0.03749142232309257</v>
       </c>
       <c r="C31">
-        <v>-0.02827878333004132</v>
+        <v>-0.03375470293707725</v>
       </c>
       <c r="D31">
-        <v>-0.01527297404914607</v>
+        <v>-0.001343974753131988</v>
       </c>
       <c r="E31">
-        <v>0.02364447639836751</v>
+        <v>0.00575526847505499</v>
       </c>
       <c r="F31">
-        <v>0.03280406807078991</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01030791460207476</v>
+      </c>
+      <c r="G31">
+        <v>-0.008702356272881417</v>
+      </c>
+      <c r="H31">
+        <v>-0.003917686505690235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02532296196834992</v>
+        <v>0.001604474918981183</v>
       </c>
       <c r="C32">
-        <v>0.01596379077914256</v>
+        <v>-0.01291053099843356</v>
       </c>
       <c r="D32">
-        <v>-0.05264118681492481</v>
+        <v>-0.008793934481126546</v>
       </c>
       <c r="E32">
-        <v>0.0419058702618401</v>
+        <v>0.03268261347925777</v>
       </c>
       <c r="F32">
-        <v>0.0375731126152543</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.01075991415977008</v>
+      </c>
+      <c r="G32">
+        <v>-0.04807246625032686</v>
+      </c>
+      <c r="H32">
+        <v>-0.04998102438697299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02882999470652054</v>
+        <v>0.01726550022832905</v>
       </c>
       <c r="C33">
-        <v>-0.04139260038675281</v>
+        <v>-0.04821484958771685</v>
       </c>
       <c r="D33">
-        <v>-0.0443237533163542</v>
+        <v>0.009761006732164701</v>
       </c>
       <c r="E33">
-        <v>0.009123056203837004</v>
+        <v>-0.02315260528260287</v>
       </c>
       <c r="F33">
-        <v>0.05329998544703187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.01657257777320614</v>
+      </c>
+      <c r="G33">
+        <v>-0.01745360244473571</v>
+      </c>
+      <c r="H33">
+        <v>-0.04935274042089121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03364913349578831</v>
+        <v>0.02167885679330621</v>
       </c>
       <c r="C34">
-        <v>-0.01526362215385715</v>
+        <v>-0.0510459462367597</v>
       </c>
       <c r="D34">
-        <v>-0.03550208259955134</v>
+        <v>-0.009824668745719889</v>
       </c>
       <c r="E34">
-        <v>0.03154883028215745</v>
+        <v>0.01920627860453264</v>
       </c>
       <c r="F34">
-        <v>0.02194504156528036</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.008250679731066636</v>
+      </c>
+      <c r="G34">
+        <v>-0.01165365265888954</v>
+      </c>
+      <c r="H34">
+        <v>-0.03410369120951025</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01987887665633513</v>
+        <v>0.01435065530445505</v>
       </c>
       <c r="C36">
-        <v>0.0004678933805273985</v>
+        <v>-0.006806543722969971</v>
       </c>
       <c r="D36">
-        <v>-0.004972130578274269</v>
+        <v>0.008511298443599441</v>
       </c>
       <c r="E36">
-        <v>0.01154289533561054</v>
+        <v>0.006619439499186617</v>
       </c>
       <c r="F36">
-        <v>0.02896840488479951</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01191371501331791</v>
+      </c>
+      <c r="G36">
+        <v>-0.009441679685176995</v>
+      </c>
+      <c r="H36">
+        <v>-0.01459967115379111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01258308026545252</v>
+        <v>0.02601030216086848</v>
       </c>
       <c r="C38">
-        <v>-0.009740865136685305</v>
+        <v>-0.02223462636296113</v>
       </c>
       <c r="D38">
-        <v>0.003036137356506338</v>
+        <v>-0.01169148582083353</v>
       </c>
       <c r="E38">
-        <v>-0.01828625958549904</v>
+        <v>0.0004635275310472869</v>
       </c>
       <c r="F38">
-        <v>0.04396059130468411</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.001280107998604017</v>
+      </c>
+      <c r="G38">
+        <v>-0.01466840185410491</v>
+      </c>
+      <c r="H38">
+        <v>-0.03576859851852215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02521549011494677</v>
+        <v>0.0009756516834035881</v>
       </c>
       <c r="C39">
-        <v>-0.02105125357563388</v>
+        <v>-0.08797643577548088</v>
       </c>
       <c r="D39">
-        <v>-0.05851191128440773</v>
+        <v>0.00834451724294677</v>
       </c>
       <c r="E39">
-        <v>0.02366872272675632</v>
+        <v>-0.003959416304040073</v>
       </c>
       <c r="F39">
-        <v>0.04352907198922899</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.008855857256152504</v>
+      </c>
+      <c r="G39">
+        <v>-0.0233835386037837</v>
+      </c>
+      <c r="H39">
+        <v>-0.07826686436934045</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0111682465732651</v>
+        <v>0.01980540130207899</v>
       </c>
       <c r="C40">
-        <v>-0.04382656728235828</v>
+        <v>-0.02983351251360125</v>
       </c>
       <c r="D40">
-        <v>-0.01687009393894755</v>
+        <v>0.007361560107134938</v>
       </c>
       <c r="E40">
-        <v>0.03117448650232793</v>
+        <v>-0.01219400930014559</v>
       </c>
       <c r="F40">
-        <v>0.02997758823511629</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02605238717143929</v>
+      </c>
+      <c r="G40">
+        <v>-0.02177237694070271</v>
+      </c>
+      <c r="H40">
+        <v>-0.04876463395590436</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.008811460893103461</v>
+        <v>0.0126327285563438</v>
       </c>
       <c r="C41">
-        <v>-0.001808037324118387</v>
+        <v>0.007537866083381722</v>
       </c>
       <c r="D41">
-        <v>-0.003948300962830032</v>
+        <v>0.001894061050121169</v>
       </c>
       <c r="E41">
-        <v>-0.01351152081093337</v>
+        <v>0.002621028299642666</v>
       </c>
       <c r="F41">
-        <v>0.004139290136591603</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.006458891404017992</v>
+      </c>
+      <c r="G41">
+        <v>0.008618328814107937</v>
+      </c>
+      <c r="H41">
+        <v>0.001726122146007713</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2279079825454511</v>
+        <v>0.0815750330552748</v>
       </c>
       <c r="C42">
-        <v>-0.2912977768635396</v>
+        <v>-0.2139747487700921</v>
       </c>
       <c r="D42">
-        <v>-0.2867942988928347</v>
+        <v>0.119123891817403</v>
       </c>
       <c r="E42">
-        <v>-0.8132766293656708</v>
+        <v>-0.3450719955229595</v>
       </c>
       <c r="F42">
-        <v>-0.2825550510830583</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.329592019696687</v>
+      </c>
+      <c r="G42">
+        <v>0.8271958711824271</v>
+      </c>
+      <c r="H42">
+        <v>-0.06024818634577585</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01125932779904996</v>
+        <v>0.01371582684455246</v>
       </c>
       <c r="C43">
-        <v>-0.006230078369607446</v>
+        <v>0.005754973830136915</v>
       </c>
       <c r="D43">
-        <v>-0.006422328686748263</v>
+        <v>0.002544485329164097</v>
       </c>
       <c r="E43">
-        <v>-0.001755992805165946</v>
+        <v>0.002560758826170376</v>
       </c>
       <c r="F43">
-        <v>0.02476192123000157</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.004297315961007684</v>
+      </c>
+      <c r="G43">
+        <v>0.008001861821218332</v>
+      </c>
+      <c r="H43">
+        <v>-0.007995994998444592</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02623574493788164</v>
+        <v>0.007274978167316151</v>
       </c>
       <c r="C44">
-        <v>0.006128313845050689</v>
+        <v>-0.03982335714492852</v>
       </c>
       <c r="D44">
-        <v>-0.02966288183835766</v>
+        <v>0.00305358297306449</v>
       </c>
       <c r="E44">
-        <v>-0.006299492340060154</v>
+        <v>0.006092081664469724</v>
       </c>
       <c r="F44">
-        <v>0.08730350659162681</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.03044360857665227</v>
+      </c>
+      <c r="G44">
+        <v>-0.01765257958595154</v>
+      </c>
+      <c r="H44">
+        <v>-0.06146337787083638</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01890133553022846</v>
+        <v>0.003764873039915482</v>
       </c>
       <c r="C46">
-        <v>-0.00932405742647604</v>
+        <v>-0.01338383248447036</v>
       </c>
       <c r="D46">
-        <v>-0.04344659334659565</v>
+        <v>0.009958400878795688</v>
       </c>
       <c r="E46">
-        <v>0.02146227267734026</v>
+        <v>0.003948986477602655</v>
       </c>
       <c r="F46">
-        <v>0.05548228600647328</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01175744856560145</v>
+      </c>
+      <c r="G46">
+        <v>-0.01487397462814243</v>
+      </c>
+      <c r="H46">
+        <v>-0.01556274158168337</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07427806141352175</v>
+        <v>0.05279205272492091</v>
       </c>
       <c r="C47">
-        <v>-0.04891891633819005</v>
+        <v>-0.06938910566690279</v>
       </c>
       <c r="D47">
-        <v>-0.004088873807203863</v>
+        <v>-0.01132296485840715</v>
       </c>
       <c r="E47">
-        <v>0.03647010391665859</v>
+        <v>0.01236085443030879</v>
       </c>
       <c r="F47">
-        <v>0.005261664072676274</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.0001064013148985795</v>
+      </c>
+      <c r="G47">
+        <v>-0.004379715973938177</v>
+      </c>
+      <c r="H47">
+        <v>0.03505892326260098</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01830273856186918</v>
+        <v>0.01352221168047898</v>
       </c>
       <c r="C48">
-        <v>-0.00963841442581774</v>
+        <v>-0.01586180201071542</v>
       </c>
       <c r="D48">
-        <v>-0.01318393916231246</v>
+        <v>-0.0007798141870353886</v>
       </c>
       <c r="E48">
-        <v>0.01068884148380199</v>
+        <v>0.002274433572286058</v>
       </c>
       <c r="F48">
-        <v>0.03062438510298024</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.00616281940084814</v>
+      </c>
+      <c r="G48">
+        <v>-0.009942831281192827</v>
+      </c>
+      <c r="H48">
+        <v>-0.01890792603927675</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08352515318727742</v>
+        <v>0.05624807243290546</v>
       </c>
       <c r="C50">
-        <v>-0.02624267437252787</v>
+        <v>-0.06505841905168459</v>
       </c>
       <c r="D50">
-        <v>-0.02755686310845811</v>
+        <v>-0.009517085423518624</v>
       </c>
       <c r="E50">
-        <v>0.02076383596002696</v>
+        <v>0.02580489426775756</v>
       </c>
       <c r="F50">
-        <v>0.01742906022349108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.01663837087219966</v>
+      </c>
+      <c r="G50">
+        <v>-0.001319921056211405</v>
+      </c>
+      <c r="H50">
+        <v>0.01860098965142839</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01633910353708129</v>
+        <v>0.01320851131728289</v>
       </c>
       <c r="C51">
-        <v>0.003032121498769406</v>
+        <v>-0.0171139654416376</v>
       </c>
       <c r="D51">
-        <v>0.003605544470517502</v>
+        <v>0.004655218810202089</v>
       </c>
       <c r="E51">
-        <v>0.002207021304730248</v>
+        <v>0.009537259600610103</v>
       </c>
       <c r="F51">
-        <v>0.09193223777246412</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.0118862125013489</v>
+      </c>
+      <c r="G51">
+        <v>-0.01849023702279436</v>
+      </c>
+      <c r="H51">
+        <v>-0.04999117956636497</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.0866518710923526</v>
+        <v>0.06993953694247709</v>
       </c>
       <c r="C53">
-        <v>-0.05234588458615683</v>
+        <v>-0.1066833844765427</v>
       </c>
       <c r="D53">
-        <v>-0.03579476793664137</v>
+        <v>-0.01304205976454363</v>
       </c>
       <c r="E53">
-        <v>0.05121083653392582</v>
+        <v>0.02226303855444309</v>
       </c>
       <c r="F53">
-        <v>-0.02913600546154396</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.01863026491328311</v>
+      </c>
+      <c r="G53">
+        <v>0.002946302383990253</v>
+      </c>
+      <c r="H53">
+        <v>0.03688240737202661</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02644779095292588</v>
+        <v>0.02366971911011102</v>
       </c>
       <c r="C54">
-        <v>-0.0008889409974286391</v>
+        <v>-0.001359374319877722</v>
       </c>
       <c r="D54">
-        <v>0.004533779048662754</v>
+        <v>-0.007079170400714973</v>
       </c>
       <c r="E54">
-        <v>0.02163686074583991</v>
+        <v>0.004331267448451076</v>
       </c>
       <c r="F54">
-        <v>0.02993562865016483</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.0214442856598796</v>
+      </c>
+      <c r="G54">
+        <v>-0.02433021302380082</v>
+      </c>
+      <c r="H54">
+        <v>-0.008347769839207439</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08020653154769318</v>
+        <v>0.05035764818443659</v>
       </c>
       <c r="C55">
-        <v>-0.04810565479267319</v>
+        <v>-0.09503674278179713</v>
       </c>
       <c r="D55">
-        <v>-0.04110622728195423</v>
+        <v>-0.0102848474013917</v>
       </c>
       <c r="E55">
-        <v>0.03795898301161319</v>
+        <v>0.01392403684352251</v>
       </c>
       <c r="F55">
-        <v>-0.03169030940830647</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.001727672019313571</v>
+      </c>
+      <c r="G55">
+        <v>-0.001033694545083652</v>
+      </c>
+      <c r="H55">
+        <v>0.03944279665139417</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1188663028982746</v>
+        <v>0.09430897730904536</v>
       </c>
       <c r="C56">
-        <v>-0.07962460444897285</v>
+        <v>-0.1362978688661486</v>
       </c>
       <c r="D56">
-        <v>-0.01611188718175227</v>
+        <v>-0.02275602462712038</v>
       </c>
       <c r="E56">
-        <v>0.08345845989820201</v>
+        <v>0.0320983046243131</v>
       </c>
       <c r="F56">
-        <v>-0.05354380806748821</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.04144835015156503</v>
+      </c>
+      <c r="G56">
+        <v>0.008199097541615592</v>
+      </c>
+      <c r="H56">
+        <v>0.08168170804624568</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03283225807286389</v>
+        <v>0.02160625120089709</v>
       </c>
       <c r="C57">
-        <v>-0.02290134793719171</v>
+        <v>-0.03037978014895663</v>
       </c>
       <c r="D57">
-        <v>-0.02140688972332022</v>
+        <v>0.02167025145655204</v>
       </c>
       <c r="E57">
-        <v>-0.03357720254588161</v>
+        <v>-0.01664548933824366</v>
       </c>
       <c r="F57">
-        <v>0.05621269043626823</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.04013779187780268</v>
+      </c>
+      <c r="G57">
+        <v>-0.03283418007373601</v>
+      </c>
+      <c r="H57">
+        <v>-0.06286368092180153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1354673206605476</v>
+        <v>0.08232018234947627</v>
       </c>
       <c r="C58">
-        <v>-0.2327583931696662</v>
+        <v>-0.18397420170679</v>
       </c>
       <c r="D58">
-        <v>-0.1861719801744779</v>
+        <v>-0.001598301277708303</v>
       </c>
       <c r="E58">
-        <v>0.008587345586556088</v>
+        <v>-0.5428606724553622</v>
       </c>
       <c r="F58">
-        <v>0.5779652064179285</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.5713741223651679</v>
+      </c>
+      <c r="G58">
+        <v>-0.501104882423571</v>
+      </c>
+      <c r="H58">
+        <v>0.1533880745586671</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05698975415407535</v>
+        <v>0.2129343804397115</v>
       </c>
       <c r="C59">
-        <v>-0.03364167912807047</v>
+        <v>0.1631387232751905</v>
       </c>
       <c r="D59">
-        <v>0.1875712982527104</v>
+        <v>-0.02848139019379394</v>
       </c>
       <c r="E59">
-        <v>-0.04536197768884436</v>
+        <v>-0.01268137106225632</v>
       </c>
       <c r="F59">
-        <v>0.08413072347299067</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01070895474891404</v>
+      </c>
+      <c r="G59">
+        <v>-0.01109370857090079</v>
+      </c>
+      <c r="H59">
+        <v>-0.02148664232852293</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1232500732740404</v>
+        <v>0.2181217892132195</v>
       </c>
       <c r="C60">
-        <v>-0.1160884643065861</v>
+        <v>-0.07821428092475759</v>
       </c>
       <c r="D60">
-        <v>0.01543959096646133</v>
+        <v>-0.01309070728336002</v>
       </c>
       <c r="E60">
-        <v>-0.01928296523768012</v>
+        <v>-0.02517119625816224</v>
       </c>
       <c r="F60">
-        <v>0.1810461294977007</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.129277765069726</v>
+      </c>
+      <c r="G60">
+        <v>-0.0534704966660601</v>
+      </c>
+      <c r="H60">
+        <v>-0.3907766147537289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02142118529686647</v>
+        <v>0.01160550939321823</v>
       </c>
       <c r="C61">
-        <v>-0.01448252157733895</v>
+        <v>-0.0631551128361888</v>
       </c>
       <c r="D61">
-        <v>-0.04099920702725055</v>
+        <v>0.000998254706033833</v>
       </c>
       <c r="E61">
-        <v>0.008287760794666532</v>
+        <v>0.005160460656937409</v>
       </c>
       <c r="F61">
-        <v>0.02006879318331725</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.006897812162090614</v>
+      </c>
+      <c r="G61">
+        <v>-0.02087808754842139</v>
+      </c>
+      <c r="H61">
+        <v>-0.05824336483699138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01719259589264748</v>
+        <v>0.007119352390753281</v>
       </c>
       <c r="C63">
-        <v>-0.005929527037130433</v>
+        <v>-0.02385844696580454</v>
       </c>
       <c r="D63">
-        <v>-0.01826303483788191</v>
+        <v>0.005938771026947707</v>
       </c>
       <c r="E63">
-        <v>0.003235757612463478</v>
+        <v>0.009870304399510001</v>
       </c>
       <c r="F63">
-        <v>0.001283196301052499</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.005406416198114092</v>
+      </c>
+      <c r="G63">
+        <v>-0.01014202262225251</v>
+      </c>
+      <c r="H63">
+        <v>-0.01220679882222825</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04061376734902889</v>
+        <v>0.03397484890815079</v>
       </c>
       <c r="C64">
-        <v>-0.008923535642616538</v>
+        <v>-0.04570857209148594</v>
       </c>
       <c r="D64">
-        <v>-0.02500035787292322</v>
+        <v>-9.772142770999803e-05</v>
       </c>
       <c r="E64">
-        <v>0.02222180198452306</v>
+        <v>0.02156351014350593</v>
       </c>
       <c r="F64">
-        <v>0.008849038477782343</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.009465927053540374</v>
+      </c>
+      <c r="G64">
+        <v>0.01232343507465497</v>
+      </c>
+      <c r="H64">
+        <v>-0.03999074904800478</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03877242761849584</v>
+        <v>0.03880536032281879</v>
       </c>
       <c r="C65">
-        <v>-0.0198929201520578</v>
+        <v>-0.08382853936559383</v>
       </c>
       <c r="D65">
-        <v>-0.03959139713452741</v>
+        <v>0.01036706070051921</v>
       </c>
       <c r="E65">
-        <v>0.0324080085929096</v>
+        <v>0.01574782453831518</v>
       </c>
       <c r="F65">
-        <v>0.01343094832664402</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.03400521600458008</v>
+      </c>
+      <c r="G65">
+        <v>-0.02915425290210058</v>
+      </c>
+      <c r="H65">
+        <v>-0.06556835735525453</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03209575876931955</v>
+        <v>0.009709876483167219</v>
       </c>
       <c r="C66">
-        <v>-0.03365342119683432</v>
+        <v>-0.1183513017196905</v>
       </c>
       <c r="D66">
-        <v>-0.06299301744498274</v>
+        <v>0.004806843274412689</v>
       </c>
       <c r="E66">
-        <v>0.05150391626952724</v>
+        <v>0.0008945331874408674</v>
       </c>
       <c r="F66">
-        <v>0.03250011662177153</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.03059405102051728</v>
+      </c>
+      <c r="G66">
+        <v>-0.03971488243557897</v>
+      </c>
+      <c r="H66">
+        <v>-0.08749769667505571</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02078910460710793</v>
+        <v>0.04792310173046253</v>
       </c>
       <c r="C67">
-        <v>-0.01482962163055714</v>
+        <v>-0.03010913008281207</v>
       </c>
       <c r="D67">
-        <v>0.0114428541134353</v>
+        <v>-0.01207288158709787</v>
       </c>
       <c r="E67">
-        <v>-0.01169331274903139</v>
+        <v>0.006340169046324785</v>
       </c>
       <c r="F67">
-        <v>0.02852627943926751</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01115968918687316</v>
+      </c>
+      <c r="G67">
+        <v>-0.01569988429993025</v>
+      </c>
+      <c r="H67">
+        <v>-0.0346463259252434</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06725807779735724</v>
+        <v>0.2101325451447733</v>
       </c>
       <c r="C68">
-        <v>-0.02597684886728873</v>
+        <v>0.202001151669184</v>
       </c>
       <c r="D68">
-        <v>0.2098360152055237</v>
+        <v>-0.008344444007500241</v>
       </c>
       <c r="E68">
-        <v>-0.05917386532740673</v>
+        <v>-0.02322807742421021</v>
       </c>
       <c r="F68">
-        <v>0.0771089972165743</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.0575168278352863</v>
+      </c>
+      <c r="G68">
+        <v>0.007794453612194219</v>
+      </c>
+      <c r="H68">
+        <v>0.03517496242124545</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05919090698934536</v>
+        <v>0.05459681967774414</v>
       </c>
       <c r="C69">
-        <v>-0.03969591694972972</v>
+        <v>-0.06352317276121933</v>
       </c>
       <c r="D69">
-        <v>-0.009211921935970627</v>
+        <v>-0.01574841084498494</v>
       </c>
       <c r="E69">
-        <v>0.03728342614807862</v>
+        <v>0.01969792550916687</v>
       </c>
       <c r="F69">
-        <v>0.002661106761074269</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.02145725372299717</v>
+      </c>
+      <c r="G69">
+        <v>-0.004973830601671988</v>
+      </c>
+      <c r="H69">
+        <v>0.003201556394096567</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07108873936340469</v>
+        <v>0.1856852837297781</v>
       </c>
       <c r="C71">
-        <v>-0.03441326281332148</v>
+        <v>0.1578393162420969</v>
       </c>
       <c r="D71">
-        <v>0.2139037711493777</v>
+        <v>-0.01367363844681887</v>
       </c>
       <c r="E71">
-        <v>-0.1005886997332103</v>
+        <v>-0.02683935801535597</v>
       </c>
       <c r="F71">
-        <v>0.08112341186769668</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.06106656323923022</v>
+      </c>
+      <c r="G71">
+        <v>0.01497010259696023</v>
+      </c>
+      <c r="H71">
+        <v>0.0116379156622168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09773745376933715</v>
+        <v>0.05293898714874842</v>
       </c>
       <c r="C72">
-        <v>-0.08229454193442294</v>
+        <v>-0.1122533324433133</v>
       </c>
       <c r="D72">
-        <v>-0.06822467840445735</v>
+        <v>-0.01669375250779103</v>
       </c>
       <c r="E72">
-        <v>0.08632037102170732</v>
+        <v>-0.0005437970300955801</v>
       </c>
       <c r="F72">
-        <v>0.09342628459058365</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.04114473140927231</v>
+      </c>
+      <c r="G72">
+        <v>-0.05888034031550942</v>
+      </c>
+      <c r="H72">
+        <v>-0.09392465251796672</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1441352711794877</v>
+        <v>0.2800426172660006</v>
       </c>
       <c r="C73">
-        <v>-0.1934882227614211</v>
+        <v>-0.158853203107224</v>
       </c>
       <c r="D73">
-        <v>0.007128689585049055</v>
+        <v>-0.0123868127944601</v>
       </c>
       <c r="E73">
-        <v>-0.04015535738412539</v>
+        <v>-0.06052318186991584</v>
       </c>
       <c r="F73">
-        <v>0.2053060162769561</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1754687353720379</v>
+      </c>
+      <c r="G73">
+        <v>-0.05630141588126564</v>
+      </c>
+      <c r="H73">
+        <v>-0.4726115011279136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.109968396223901</v>
+        <v>0.09212049508385711</v>
       </c>
       <c r="C74">
-        <v>-0.07428558144187082</v>
+        <v>-0.1397216084769325</v>
       </c>
       <c r="D74">
-        <v>-0.02191003029503638</v>
+        <v>-0.0225195173313276</v>
       </c>
       <c r="E74">
-        <v>0.05791734736704691</v>
+        <v>0.02853971625071035</v>
       </c>
       <c r="F74">
-        <v>-0.07010805422403124</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.02913110995361332</v>
+      </c>
+      <c r="G74">
+        <v>0.001856890177742161</v>
+      </c>
+      <c r="H74">
+        <v>0.05327357646881027</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1957876021188297</v>
+        <v>0.1983461034545536</v>
       </c>
       <c r="C75">
-        <v>-0.1521032705448875</v>
+        <v>-0.233942109660074</v>
       </c>
       <c r="D75">
-        <v>-0.009455154080773452</v>
+        <v>-0.04851550411243912</v>
       </c>
       <c r="E75">
-        <v>0.1707150007688764</v>
+        <v>0.04118738271199698</v>
       </c>
       <c r="F75">
-        <v>-0.1043661824709803</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.08788147828947859</v>
+      </c>
+      <c r="G75">
+        <v>-0.005380297506837087</v>
+      </c>
+      <c r="H75">
+        <v>0.175085994096506</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2483033110326977</v>
+        <v>0.1450010515521507</v>
       </c>
       <c r="C76">
-        <v>-0.14309583668079</v>
+        <v>-0.205495165564382</v>
       </c>
       <c r="D76">
-        <v>-0.01038160719743268</v>
+        <v>-0.04113008485393112</v>
       </c>
       <c r="E76">
-        <v>0.1943407156054691</v>
+        <v>0.07867959028730447</v>
       </c>
       <c r="F76">
-        <v>-0.2054389628165316</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.06081284432648583</v>
+      </c>
+      <c r="G76">
+        <v>0.01093539280102556</v>
+      </c>
+      <c r="H76">
+        <v>0.1517698972980831</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.09098448552943673</v>
+        <v>0.04412085283689069</v>
       </c>
       <c r="C77">
-        <v>-0.07884500029448958</v>
+        <v>-0.08858435072915377</v>
       </c>
       <c r="D77">
-        <v>-0.06165892038331926</v>
+        <v>0.007438021485515315</v>
       </c>
       <c r="E77">
-        <v>-0.03085409703208836</v>
+        <v>-0.02157695729332779</v>
       </c>
       <c r="F77">
-        <v>0.09530392021162358</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.04423365792786728</v>
+      </c>
+      <c r="G77">
+        <v>-0.01470715544678383</v>
+      </c>
+      <c r="H77">
+        <v>-0.01433434924471974</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05627267485722767</v>
+        <v>0.02048371845373489</v>
       </c>
       <c r="C78">
-        <v>-0.02791619008506343</v>
+        <v>-0.07630713618112006</v>
       </c>
       <c r="D78">
-        <v>-0.09865590327362271</v>
+        <v>0.002283197256955005</v>
       </c>
       <c r="E78">
-        <v>0.03303250134125597</v>
+        <v>0.004370212574684413</v>
       </c>
       <c r="F78">
-        <v>0.0718881190360693</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.01129436570670404</v>
+      </c>
+      <c r="G78">
+        <v>-0.03712798250840819</v>
+      </c>
+      <c r="H78">
+        <v>-0.08885280381907763</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.6351649674542686</v>
+        <v>0.09945403751546075</v>
       </c>
       <c r="C80">
-        <v>0.7421979981813243</v>
+        <v>-0.1145375928730498</v>
       </c>
       <c r="D80">
-        <v>-0.09005409538213806</v>
+        <v>-0.00653192013426467</v>
       </c>
       <c r="E80">
-        <v>-0.08120401805781355</v>
+        <v>0.7267239700951776</v>
       </c>
       <c r="F80">
-        <v>0.04933262555207177</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.6247712482526668</v>
+      </c>
+      <c r="G80">
+        <v>0.009129722497156481</v>
+      </c>
+      <c r="H80">
+        <v>-0.1004954714027373</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1604576662301488</v>
+        <v>0.1263489241009947</v>
       </c>
       <c r="C81">
-        <v>-0.1034059722515054</v>
+        <v>-0.1477844509935489</v>
       </c>
       <c r="D81">
-        <v>0.00539440939858852</v>
+        <v>-0.03000108162577618</v>
       </c>
       <c r="E81">
-        <v>0.1323145265950592</v>
+        <v>0.04255888172937562</v>
       </c>
       <c r="F81">
-        <v>-0.08801793682292636</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.04099224880863666</v>
+      </c>
+      <c r="G81">
+        <v>0.00240675692291602</v>
+      </c>
+      <c r="H81">
+        <v>0.1065341280408476</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02634659824614732</v>
+        <v>0.02141391781747595</v>
       </c>
       <c r="C83">
-        <v>-0.02583993443709224</v>
+        <v>-0.0231694283878286</v>
       </c>
       <c r="D83">
-        <v>-0.02245268620430795</v>
+        <v>0.002435529759424293</v>
       </c>
       <c r="E83">
-        <v>-0.01800644315832438</v>
+        <v>-0.0115372051191153</v>
       </c>
       <c r="F83">
-        <v>0.04921111058827348</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.01856605113344664</v>
+      </c>
+      <c r="G83">
+        <v>-0.01800482797228577</v>
+      </c>
+      <c r="H83">
+        <v>-0.04589760376126849</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2105993595064114</v>
+        <v>0.1759367415013895</v>
       </c>
       <c r="C85">
-        <v>-0.1518007721364946</v>
+        <v>-0.2240217996403622</v>
       </c>
       <c r="D85">
-        <v>-0.01748136296688486</v>
+        <v>-0.03266819770424502</v>
       </c>
       <c r="E85">
-        <v>0.1743799962908227</v>
+        <v>0.04863139027866935</v>
       </c>
       <c r="F85">
-        <v>-0.1460571186935047</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1113484642105467</v>
+      </c>
+      <c r="G85">
+        <v>0.02771181581342</v>
+      </c>
+      <c r="H85">
+        <v>0.1160888336508371</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.008106620373742967</v>
+        <v>0.01008860377773256</v>
       </c>
       <c r="C86">
-        <v>0.0007852655363665363</v>
+        <v>-0.0350367225888762</v>
       </c>
       <c r="D86">
-        <v>-0.06487829379399647</v>
+        <v>0.00633473778796903</v>
       </c>
       <c r="E86">
-        <v>-0.005669454068481258</v>
+        <v>-0.000974181390022198</v>
       </c>
       <c r="F86">
-        <v>0.04262998692654275</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02515504383715041</v>
+      </c>
+      <c r="G86">
+        <v>-0.003443788254707157</v>
+      </c>
+      <c r="H86">
+        <v>-0.0765405941250611</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02798784238913498</v>
+        <v>0.005147137687509605</v>
       </c>
       <c r="C87">
-        <v>-0.01729724032216663</v>
+        <v>-0.03912048536634685</v>
       </c>
       <c r="D87">
-        <v>-0.03901966903073583</v>
+        <v>0.00782854024895587</v>
       </c>
       <c r="E87">
-        <v>0.008557474818195713</v>
+        <v>-0.0149044987984905</v>
       </c>
       <c r="F87">
-        <v>0.09374796155403672</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.0365629195200912</v>
+      </c>
+      <c r="G87">
+        <v>-0.04403946108525492</v>
+      </c>
+      <c r="H87">
+        <v>-0.0817956532539811</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.02094978027384796</v>
+        <v>0.042398349260462</v>
       </c>
       <c r="C88">
-        <v>0.003117815330033528</v>
+        <v>-0.019293373316842</v>
       </c>
       <c r="D88">
-        <v>0.001211352790551308</v>
+        <v>0.01628771928284881</v>
       </c>
       <c r="E88">
-        <v>0.009307431013303788</v>
+        <v>0.03057357835695635</v>
       </c>
       <c r="F88">
-        <v>-0.0296181278617596</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01219217347374577</v>
+      </c>
+      <c r="G88">
+        <v>0.001467762874705803</v>
+      </c>
+      <c r="H88">
+        <v>-0.002656928524831583</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09371103328757295</v>
+        <v>0.3296284993881183</v>
       </c>
       <c r="C89">
-        <v>-0.05738486244259555</v>
+        <v>0.2832627535741757</v>
       </c>
       <c r="D89">
-        <v>0.350464563828622</v>
+        <v>-0.02453880656726806</v>
       </c>
       <c r="E89">
-        <v>-0.07056473602401139</v>
+        <v>-0.01197229256003668</v>
       </c>
       <c r="F89">
-        <v>0.09553143911319453</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.00232833727702118</v>
+      </c>
+      <c r="G89">
+        <v>0.02480292060249589</v>
+      </c>
+      <c r="H89">
+        <v>0.01224936072275235</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08216220059309896</v>
+        <v>0.2747577135946637</v>
       </c>
       <c r="C90">
-        <v>-0.01933124616680562</v>
+        <v>0.2624474823885558</v>
       </c>
       <c r="D90">
-        <v>0.3501230272409266</v>
+        <v>-0.02292732953968914</v>
       </c>
       <c r="E90">
-        <v>-0.09253649580808382</v>
+        <v>-0.0152115287859395</v>
       </c>
       <c r="F90">
-        <v>0.03907210648718332</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04715212142473228</v>
+      </c>
+      <c r="G90">
+        <v>0.02952037860916408</v>
+      </c>
+      <c r="H90">
+        <v>0.05846140486156617</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2424927526742351</v>
+        <v>0.18837733363313</v>
       </c>
       <c r="C91">
-        <v>-0.1956896683876519</v>
+        <v>-0.2113719369734979</v>
       </c>
       <c r="D91">
-        <v>-0.01951534865237642</v>
+        <v>-0.04530724113202129</v>
       </c>
       <c r="E91">
-        <v>0.1562928602705436</v>
+        <v>0.03665470976484478</v>
       </c>
       <c r="F91">
-        <v>-0.2232518307124887</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.08607383204380803</v>
+      </c>
+      <c r="G91">
+        <v>0.02660732071176309</v>
+      </c>
+      <c r="H91">
+        <v>0.1920791532060797</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1477112596187249</v>
+        <v>0.2831407695315374</v>
       </c>
       <c r="C92">
-        <v>-0.07321885023602595</v>
+        <v>0.1699044863232104</v>
       </c>
       <c r="D92">
-        <v>0.4448106108061877</v>
+        <v>-0.06656207377376132</v>
       </c>
       <c r="E92">
-        <v>0.003728201923454932</v>
+        <v>-0.003373315305370615</v>
       </c>
       <c r="F92">
-        <v>-0.1302421782270671</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.05435090727733684</v>
+      </c>
+      <c r="G92">
+        <v>-0.008483362522503686</v>
+      </c>
+      <c r="H92">
+        <v>0.1534691248390415</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.07982933140854351</v>
+        <v>0.3068099206037859</v>
       </c>
       <c r="C93">
-        <v>-0.06625274780285235</v>
+        <v>0.2561317420914871</v>
       </c>
       <c r="D93">
-        <v>0.4111836990227529</v>
+        <v>-0.03234825817694507</v>
       </c>
       <c r="E93">
-        <v>-0.1436737757090669</v>
+        <v>-0.0434043041318118</v>
       </c>
       <c r="F93">
-        <v>0.05437996428855604</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01962200163058037</v>
+      </c>
+      <c r="G93">
+        <v>0.03876583056179375</v>
+      </c>
+      <c r="H93">
+        <v>-0.009849666164940957</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2285281354639174</v>
+        <v>0.2298061231928846</v>
       </c>
       <c r="C94">
-        <v>-0.1956247759395349</v>
+        <v>-0.2366298523303741</v>
       </c>
       <c r="D94">
-        <v>-0.01409920474585634</v>
+        <v>-0.03600757689039443</v>
       </c>
       <c r="E94">
-        <v>0.2467692824835673</v>
+        <v>0.05848192565807059</v>
       </c>
       <c r="F94">
-        <v>-0.1463236247557973</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.1943110074550953</v>
+      </c>
+      <c r="G94">
+        <v>-0.001359849398323078</v>
+      </c>
+      <c r="H94">
+        <v>0.4187250828615805</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.01056321028581954</v>
+        <v>0.02893491506329224</v>
       </c>
       <c r="C95">
-        <v>-0.1003806758461898</v>
+        <v>-0.1033787595731287</v>
       </c>
       <c r="D95">
-        <v>-0.03215437611998605</v>
+        <v>-0.01179313494040569</v>
       </c>
       <c r="E95">
-        <v>0.03268262007245952</v>
+        <v>-0.09820572343552879</v>
       </c>
       <c r="F95">
-        <v>0.01995201863074647</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.01032426099955565</v>
+      </c>
+      <c r="G95">
+        <v>-0.02639552963023965</v>
+      </c>
+      <c r="H95">
+        <v>-0.03849102788859165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1197226242762493</v>
+        <v>0.1830742011817958</v>
       </c>
       <c r="C98">
-        <v>-0.1237942265069699</v>
+        <v>-0.0712139015225509</v>
       </c>
       <c r="D98">
-        <v>0.02315351061711884</v>
+        <v>-0.03514820414761104</v>
       </c>
       <c r="E98">
-        <v>-0.07415402755363705</v>
+        <v>-0.06417522078608531</v>
       </c>
       <c r="F98">
-        <v>0.1806947039022719</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.03946431125776032</v>
+      </c>
+      <c r="G98">
+        <v>-0.03205424005672719</v>
+      </c>
+      <c r="H98">
+        <v>-0.3406340621715226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.01062013491924856</v>
+        <v>0.00653682918750719</v>
       </c>
       <c r="C101">
-        <v>0.0008751645385747888</v>
+        <v>-0.01858318049285947</v>
       </c>
       <c r="D101">
-        <v>-0.04924518177971852</v>
+        <v>0.005413639015157923</v>
       </c>
       <c r="E101">
-        <v>0.02328327888216258</v>
+        <v>-0.01561311949123553</v>
       </c>
       <c r="F101">
-        <v>0.1757639668550747</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.04838394315274951</v>
+      </c>
+      <c r="G101">
+        <v>-0.06188577756423838</v>
+      </c>
+      <c r="H101">
+        <v>-0.007558959917411841</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1033257315727537</v>
+        <v>0.09317292215353418</v>
       </c>
       <c r="C102">
-        <v>-0.07210928115743209</v>
+        <v>-0.1120861932969164</v>
       </c>
       <c r="D102">
-        <v>-0.006485778956204658</v>
+        <v>-0.01014328659040863</v>
       </c>
       <c r="E102">
-        <v>0.08911563656866196</v>
+        <v>0.02640425094148974</v>
       </c>
       <c r="F102">
-        <v>-0.08941026254551479</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.05514555370767123</v>
+      </c>
+      <c r="G102">
+        <v>0.004552574594236039</v>
+      </c>
+      <c r="H102">
+        <v>0.07132287685697683</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04808838941837559</v>
+        <v>0.01164986836909633</v>
       </c>
       <c r="C103">
-        <v>-0.01686169531992714</v>
+        <v>-0.01926042357087804</v>
       </c>
       <c r="D103">
-        <v>-0.01522176623132358</v>
+        <v>-0.001688103567722238</v>
       </c>
       <c r="E103">
-        <v>0.04415065244282771</v>
+        <v>0.01264592849782482</v>
       </c>
       <c r="F103">
-        <v>-0.01222374666805592</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.009570109344408339</v>
+      </c>
+      <c r="G103">
+        <v>-0.004691375194493757</v>
+      </c>
+      <c r="H103">
+        <v>0.01773012251042446</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1141274274862371</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.01445931215705757</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.979213534398107</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.05355824269298198</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.06038085367862289</v>
+      </c>
+      <c r="G104">
+        <v>-0.09294176441405354</v>
+      </c>
+      <c r="H104">
+        <v>0.05958971325302519</v>
       </c>
     </row>
   </sheetData>
